--- a/Selenium with Python/XPath-CSSLocator/XPath-CSSSelector Mind Map.xlsx
+++ b/Selenium with Python/XPath-CSSLocator/XPath-CSSSelector Mind Map.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/939c1bf4b082bbe3/Desktop/Projects/Testing Projects/Python-Pytest-Robot/Automation-Testing-with-Python/Selenium with Python/XPath-CSSLocator/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048CAE1D9486A5ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A039FD3D-1BF9-4B9C-97D2-65B1B2B75451}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>Selector Type</t>
   </si>
@@ -45,6 +34,9 @@
     <t>CSS Selector Example</t>
   </si>
   <si>
+    <t>Concept Clear</t>
+  </si>
+  <si>
     <t>Element Selector</t>
   </si>
   <si>
@@ -54,15 +46,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>div</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -72,15 +65,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -104,7 +98,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -114,13 +108,17 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>p</t>
     </r>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>ID Selector</t>
   </si>
   <si>
@@ -130,15 +128,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -168,15 +167,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>class</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -206,15 +206,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>type</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -224,15 +225,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>href</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -373,7 +375,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -383,8 +385,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>:first-child</t>
     </r>
@@ -411,7 +414,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -421,8 +424,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>:last-child</t>
     </r>
@@ -449,7 +453,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -459,8 +463,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>:nth-child(n)</t>
     </r>
@@ -484,15 +489,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;div&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -507,7 +513,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -517,8 +523,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>:nth-of-type(n)</t>
     </r>
@@ -584,7 +591,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -594,8 +601,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>//element[*]</t>
     </r>
@@ -611,16 +619,14 @@
   </si>
   <si>
     <t>//*[@*='button']</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,15 +637,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -650,7 +662,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -662,33 +681,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -699,10 +720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -729,82 +750,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,165 +837,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" style="6" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="86.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,418 +1037,437 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
